--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.6271598121823</v>
+        <v>27.83862766666667</v>
       </c>
       <c r="H2">
-        <v>19.6271598121823</v>
+        <v>83.515883</v>
       </c>
       <c r="I2">
-        <v>0.03376614594266109</v>
+        <v>0.04355088691831899</v>
       </c>
       <c r="J2">
-        <v>0.03376614594266109</v>
+        <v>0.04355088691831899</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N2">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q2">
-        <v>1433.349564803382</v>
+        <v>2639.097754844478</v>
       </c>
       <c r="R2">
-        <v>1433.349564803382</v>
+        <v>23751.8797936003</v>
       </c>
       <c r="S2">
-        <v>0.004678738771544245</v>
+        <v>0.007325100531560388</v>
       </c>
       <c r="T2">
-        <v>0.004678738771544245</v>
+        <v>0.007325100531560391</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.6271598121823</v>
+        <v>27.83862766666667</v>
       </c>
       <c r="H3">
-        <v>19.6271598121823</v>
+        <v>83.515883</v>
       </c>
       <c r="I3">
-        <v>0.03376614594266109</v>
+        <v>0.04355088691831899</v>
       </c>
       <c r="J3">
-        <v>0.03376614594266109</v>
+        <v>0.04355088691831899</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N3">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q3">
-        <v>2843.772647572388</v>
+        <v>4054.4556681433</v>
       </c>
       <c r="R3">
-        <v>2843.772647572388</v>
+        <v>36490.10101328971</v>
       </c>
       <c r="S3">
-        <v>0.009282640934473717</v>
+        <v>0.01125357911255345</v>
       </c>
       <c r="T3">
-        <v>0.009282640934473717</v>
+        <v>0.01125357911255345</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.6271598121823</v>
+        <v>27.83862766666667</v>
       </c>
       <c r="H4">
-        <v>19.6271598121823</v>
+        <v>83.515883</v>
       </c>
       <c r="I4">
-        <v>0.03376614594266109</v>
+        <v>0.04355088691831899</v>
       </c>
       <c r="J4">
-        <v>0.03376614594266109</v>
+        <v>0.04355088691831899</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N4">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q4">
-        <v>1335.034679403179</v>
+        <v>2025.983150469589</v>
       </c>
       <c r="R4">
-        <v>1335.034679403179</v>
+        <v>18233.84835422629</v>
       </c>
       <c r="S4">
-        <v>0.00435781938283605</v>
+        <v>0.005623334802659375</v>
       </c>
       <c r="T4">
-        <v>0.00435781938283605</v>
+        <v>0.005623334802659376</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.6271598121823</v>
+        <v>27.83862766666667</v>
       </c>
       <c r="H5">
-        <v>19.6271598121823</v>
+        <v>83.515883</v>
       </c>
       <c r="I5">
-        <v>0.03376614594266109</v>
+        <v>0.04355088691831899</v>
       </c>
       <c r="J5">
-        <v>0.03376614594266109</v>
+        <v>0.04355088691831899</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N5">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q5">
-        <v>1498.464073241349</v>
+        <v>2126.484289604192</v>
       </c>
       <c r="R5">
-        <v>1498.464073241349</v>
+        <v>19138.35860643773</v>
       </c>
       <c r="S5">
-        <v>0.004891285510106623</v>
+        <v>0.005902286556661642</v>
       </c>
       <c r="T5">
-        <v>0.004891285510106623</v>
+        <v>0.005902286556661644</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.6271598121823</v>
+        <v>27.83862766666667</v>
       </c>
       <c r="H6">
-        <v>19.6271598121823</v>
+        <v>83.515883</v>
       </c>
       <c r="I6">
-        <v>0.03376614594266109</v>
+        <v>0.04355088691831899</v>
       </c>
       <c r="J6">
-        <v>0.03376614594266109</v>
+        <v>0.04355088691831899</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N6">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O6">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P6">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q6">
-        <v>1118.97810764203</v>
+        <v>1619.843054436779</v>
       </c>
       <c r="R6">
-        <v>1118.97810764203</v>
+        <v>14578.58748993101</v>
       </c>
       <c r="S6">
-        <v>0.003652567653621981</v>
+        <v>0.004496049150630455</v>
       </c>
       <c r="T6">
-        <v>0.003652567653621981</v>
+        <v>0.004496049150630455</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.6271598121823</v>
+        <v>27.83862766666667</v>
       </c>
       <c r="H7">
-        <v>19.6271598121823</v>
+        <v>83.515883</v>
       </c>
       <c r="I7">
-        <v>0.03376614594266109</v>
+        <v>0.04355088691831899</v>
       </c>
       <c r="J7">
-        <v>0.03376614594266109</v>
+        <v>0.04355088691831899</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N7">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q7">
-        <v>2114.789224106475</v>
+        <v>3224.712258544669</v>
       </c>
       <c r="R7">
-        <v>2114.789224106475</v>
+        <v>29022.41032690202</v>
       </c>
       <c r="S7">
-        <v>0.006903093690078463</v>
+        <v>0.008950536764253685</v>
       </c>
       <c r="T7">
-        <v>0.006903093690078463</v>
+        <v>0.008950536764253687</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.015607493592</v>
+        <v>81.69726833333333</v>
       </c>
       <c r="H8">
-        <v>75.015607493592</v>
+        <v>245.091805</v>
       </c>
       <c r="I8">
-        <v>0.1290552466502982</v>
+        <v>0.1278076109685829</v>
       </c>
       <c r="J8">
-        <v>0.1290552466502982</v>
+        <v>0.1278076109685829</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N8">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q8">
-        <v>5478.306050560766</v>
+        <v>7744.888865107018</v>
       </c>
       <c r="R8">
-        <v>5478.306050560766</v>
+        <v>69703.99978596317</v>
       </c>
       <c r="S8">
-        <v>0.01788228325492956</v>
+        <v>0.02149677458462117</v>
       </c>
       <c r="T8">
-        <v>0.01788228325492956</v>
+        <v>0.02149677458462117</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.015607493592</v>
+        <v>81.69726833333333</v>
       </c>
       <c r="H9">
-        <v>75.015607493592</v>
+        <v>245.091805</v>
       </c>
       <c r="I9">
-        <v>0.1290552466502982</v>
+        <v>0.1278076109685829</v>
       </c>
       <c r="J9">
-        <v>0.1290552466502982</v>
+        <v>0.1278076109685829</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N9">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q9">
-        <v>10868.98638278239</v>
+        <v>11898.50148621098</v>
       </c>
       <c r="R9">
-        <v>10868.98638278239</v>
+        <v>107086.5133758988</v>
       </c>
       <c r="S9">
-        <v>0.03547853869372482</v>
+        <v>0.03302557451743667</v>
       </c>
       <c r="T9">
-        <v>0.03547853869372482</v>
+        <v>0.03302557451743668</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>75.015607493592</v>
+        <v>81.69726833333333</v>
       </c>
       <c r="H10">
-        <v>75.015607493592</v>
+        <v>245.091805</v>
       </c>
       <c r="I10">
-        <v>0.1290552466502982</v>
+        <v>0.1278076109685829</v>
       </c>
       <c r="J10">
-        <v>0.1290552466502982</v>
+        <v>0.1278076109685829</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N10">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q10">
-        <v>5102.543539604828</v>
+        <v>5945.598003773462</v>
       </c>
       <c r="R10">
-        <v>5102.543539604828</v>
+        <v>53510.38203396116</v>
       </c>
       <c r="S10">
-        <v>0.01665571949681133</v>
+        <v>0.01650264868663491</v>
       </c>
       <c r="T10">
-        <v>0.01665571949681133</v>
+        <v>0.01650264868663491</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.015607493592</v>
+        <v>81.69726833333333</v>
       </c>
       <c r="H11">
-        <v>75.015607493592</v>
+        <v>245.091805</v>
       </c>
       <c r="I11">
-        <v>0.1290552466502982</v>
+        <v>0.1278076109685829</v>
       </c>
       <c r="J11">
-        <v>0.1290552466502982</v>
+        <v>0.1278076109685829</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N11">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q11">
-        <v>5727.175701282667</v>
+        <v>6240.535980961061</v>
       </c>
       <c r="R11">
-        <v>5727.175701282667</v>
+        <v>56164.82382864955</v>
       </c>
       <c r="S11">
-        <v>0.01869464341639021</v>
+        <v>0.0173212808610242</v>
       </c>
       <c r="T11">
-        <v>0.01869464341639021</v>
+        <v>0.0173212808610242</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>75.015607493592</v>
+        <v>81.69726833333333</v>
       </c>
       <c r="H12">
-        <v>75.015607493592</v>
+        <v>245.091805</v>
       </c>
       <c r="I12">
-        <v>0.1290552466502982</v>
+        <v>0.1278076109685829</v>
       </c>
       <c r="J12">
-        <v>0.1290552466502982</v>
+        <v>0.1278076109685829</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N12">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O12">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P12">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q12">
-        <v>4276.768687881983</v>
+        <v>4753.709639023075</v>
       </c>
       <c r="R12">
-        <v>4276.768687881983</v>
+        <v>42783.38675120768</v>
       </c>
       <c r="S12">
-        <v>0.01396022573158186</v>
+        <v>0.01319443394613615</v>
       </c>
       <c r="T12">
-        <v>0.01396022573158186</v>
+        <v>0.01319443394613615</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>75.015607493592</v>
+        <v>81.69726833333333</v>
       </c>
       <c r="H13">
-        <v>75.015607493592</v>
+        <v>245.091805</v>
       </c>
       <c r="I13">
-        <v>0.1290552466502982</v>
+        <v>0.1278076109685829</v>
       </c>
       <c r="J13">
-        <v>0.1290552466502982</v>
+        <v>0.1278076109685829</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N13">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q13">
-        <v>8082.789353392963</v>
+        <v>9463.475924122595</v>
       </c>
       <c r="R13">
-        <v>8082.789353392963</v>
+        <v>85171.28331710336</v>
       </c>
       <c r="S13">
-        <v>0.02638383605686044</v>
+        <v>0.02626689837272983</v>
       </c>
       <c r="T13">
-        <v>0.02638383605686044</v>
+        <v>0.02626689837272983</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>233.413577014974</v>
+        <v>269.5867006666667</v>
       </c>
       <c r="H14">
-        <v>233.413577014974</v>
+        <v>808.7601020000001</v>
       </c>
       <c r="I14">
-        <v>0.4015597254980445</v>
+        <v>0.4217427689323495</v>
       </c>
       <c r="J14">
-        <v>0.4015597254980445</v>
+        <v>0.4217427689323495</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N14">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q14">
-        <v>17045.93289274361</v>
+        <v>25556.7790547816</v>
       </c>
       <c r="R14">
-        <v>17045.93289274361</v>
+        <v>230011.0114930345</v>
       </c>
       <c r="S14">
-        <v>0.05564132370833137</v>
+        <v>0.07093559740085648</v>
       </c>
       <c r="T14">
-        <v>0.05564132370833137</v>
+        <v>0.0709355974008565</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>233.413577014974</v>
+        <v>269.5867006666667</v>
       </c>
       <c r="H15">
-        <v>233.413577014974</v>
+        <v>808.7601020000001</v>
       </c>
       <c r="I15">
-        <v>0.4015597254980445</v>
+        <v>0.4217427689323495</v>
       </c>
       <c r="J15">
-        <v>0.4015597254980445</v>
+        <v>0.4217427689323495</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N15">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q15">
-        <v>33819.21542592313</v>
+        <v>39262.9744419041</v>
       </c>
       <c r="R15">
-        <v>33819.21542592313</v>
+        <v>353366.769977137</v>
       </c>
       <c r="S15">
-        <v>0.1103926622799645</v>
+        <v>0.1089786213591706</v>
       </c>
       <c r="T15">
-        <v>0.1103926622799645</v>
+        <v>0.1089786213591707</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>233.413577014974</v>
+        <v>269.5867006666667</v>
       </c>
       <c r="H16">
-        <v>233.413577014974</v>
+        <v>808.7601020000001</v>
       </c>
       <c r="I16">
-        <v>0.4015597254980445</v>
+        <v>0.4217427689323495</v>
       </c>
       <c r="J16">
-        <v>0.4015597254980445</v>
+        <v>0.4217427689323495</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N16">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q16">
-        <v>15876.73524546939</v>
+        <v>19619.43381984078</v>
       </c>
       <c r="R16">
-        <v>15876.73524546939</v>
+        <v>176574.904378567</v>
       </c>
       <c r="S16">
-        <v>0.05182482946420008</v>
+        <v>0.05445585516444754</v>
       </c>
       <c r="T16">
-        <v>0.05182482946420008</v>
+        <v>0.05445585516444755</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>233.413577014974</v>
+        <v>269.5867006666667</v>
       </c>
       <c r="H17">
-        <v>233.413577014974</v>
+        <v>808.7601020000001</v>
       </c>
       <c r="I17">
-        <v>0.4015597254980445</v>
+        <v>0.4217427689323495</v>
       </c>
       <c r="J17">
-        <v>0.4015597254980445</v>
+        <v>0.4217427689323495</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N17">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q17">
-        <v>17820.2991523307</v>
+        <v>20592.6775744164</v>
       </c>
       <c r="R17">
-        <v>17820.2991523307</v>
+        <v>185334.0981697477</v>
       </c>
       <c r="S17">
-        <v>0.05816900957859764</v>
+        <v>0.05715719820143551</v>
       </c>
       <c r="T17">
-        <v>0.05816900957859764</v>
+        <v>0.05715719820143553</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>233.413577014974</v>
+        <v>269.5867006666667</v>
       </c>
       <c r="H18">
-        <v>233.413577014974</v>
+        <v>808.7601020000001</v>
       </c>
       <c r="I18">
-        <v>0.4015597254980445</v>
+        <v>0.4217427689323495</v>
       </c>
       <c r="J18">
-        <v>0.4015597254980445</v>
+        <v>0.4217427689323495</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N18">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O18">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P18">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q18">
-        <v>13307.30911683204</v>
+        <v>15686.41061880746</v>
       </c>
       <c r="R18">
-        <v>13307.30911683204</v>
+        <v>141177.6955692671</v>
       </c>
       <c r="S18">
-        <v>0.04343771026880446</v>
+        <v>0.04353932496482017</v>
       </c>
       <c r="T18">
-        <v>0.04343771026880446</v>
+        <v>0.04353932496482017</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>233.413577014974</v>
+        <v>269.5867006666667</v>
       </c>
       <c r="H19">
-        <v>233.413577014974</v>
+        <v>808.7601020000001</v>
       </c>
       <c r="I19">
-        <v>0.4015597254980445</v>
+        <v>0.4217427689323495</v>
       </c>
       <c r="J19">
-        <v>0.4015597254980445</v>
+        <v>0.4217427689323495</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N19">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q19">
-        <v>25149.8699839918</v>
+        <v>31227.81585319809</v>
       </c>
       <c r="R19">
-        <v>25149.8699839918</v>
+        <v>281050.3426787828</v>
       </c>
       <c r="S19">
-        <v>0.08209419019814647</v>
+        <v>0.08667617184161916</v>
       </c>
       <c r="T19">
-        <v>0.08209419019814647</v>
+        <v>0.08667617184161917</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>214.807972016026</v>
+        <v>218.6560773333333</v>
       </c>
       <c r="H20">
-        <v>214.807972016026</v>
+        <v>655.9682320000001</v>
       </c>
       <c r="I20">
-        <v>0.3695510406064055</v>
+        <v>0.3420666496915519</v>
       </c>
       <c r="J20">
-        <v>0.3695510406064055</v>
+        <v>0.3420666496915519</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N20">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q20">
-        <v>15687.18633525172</v>
+        <v>20728.56355144448</v>
       </c>
       <c r="R20">
-        <v>15687.18633525172</v>
+        <v>186557.0719630003</v>
       </c>
       <c r="S20">
-        <v>0.05120610402756103</v>
+        <v>0.05753436439042293</v>
       </c>
       <c r="T20">
-        <v>0.05120610402756103</v>
+        <v>0.05753436439042294</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>214.807972016026</v>
+        <v>218.6560773333333</v>
       </c>
       <c r="H21">
-        <v>214.807972016026</v>
+        <v>655.9682320000001</v>
       </c>
       <c r="I21">
-        <v>0.3695510406064055</v>
+        <v>0.3420666496915519</v>
       </c>
       <c r="J21">
-        <v>0.3695510406064055</v>
+        <v>0.3420666496915519</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N21">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q21">
-        <v>31123.45551497036</v>
+        <v>31845.36905817471</v>
       </c>
       <c r="R21">
-        <v>31123.45551497036</v>
+        <v>286608.3215235724</v>
       </c>
       <c r="S21">
-        <v>0.1015931644297108</v>
+        <v>0.08839025738533848</v>
       </c>
       <c r="T21">
-        <v>0.1015931644297108</v>
+        <v>0.0883902573853385</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>214.807972016026</v>
+        <v>218.6560773333333</v>
       </c>
       <c r="H22">
-        <v>214.807972016026</v>
+        <v>655.9682320000001</v>
       </c>
       <c r="I22">
-        <v>0.3695510406064055</v>
+        <v>0.3420666496915519</v>
       </c>
       <c r="J22">
-        <v>0.3695510406064055</v>
+        <v>0.3420666496915519</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N22">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q22">
-        <v>14611.18647822211</v>
+        <v>15912.90827009907</v>
       </c>
       <c r="R22">
-        <v>14611.18647822211</v>
+        <v>143216.1744308916</v>
       </c>
       <c r="S22">
-        <v>0.0476938259532651</v>
+        <v>0.04416799363115804</v>
       </c>
       <c r="T22">
-        <v>0.0476938259532651</v>
+        <v>0.04416799363115804</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>214.807972016026</v>
+        <v>218.6560773333333</v>
       </c>
       <c r="H23">
-        <v>214.807972016026</v>
+        <v>655.9682320000001</v>
       </c>
       <c r="I23">
-        <v>0.3695510406064055</v>
+        <v>0.3420666496915519</v>
       </c>
       <c r="J23">
-        <v>0.3695510406064055</v>
+        <v>0.3420666496915519</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N23">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q23">
-        <v>16399.82716766083</v>
+        <v>16702.28571764533</v>
       </c>
       <c r="R23">
-        <v>16399.82716766083</v>
+        <v>150320.5714588079</v>
       </c>
       <c r="S23">
-        <v>0.05353230579623804</v>
+        <v>0.04635899589699249</v>
       </c>
       <c r="T23">
-        <v>0.05353230579623804</v>
+        <v>0.0463589958969925</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>214.807972016026</v>
+        <v>218.6560773333333</v>
       </c>
       <c r="H24">
-        <v>214.807972016026</v>
+        <v>655.9682320000001</v>
       </c>
       <c r="I24">
-        <v>0.3695510406064055</v>
+        <v>0.3420666496915519</v>
       </c>
       <c r="J24">
-        <v>0.3695510406064055</v>
+        <v>0.3420666496915519</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N24">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O24">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P24">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q24">
-        <v>12246.57160450304</v>
+        <v>12722.91624500185</v>
       </c>
       <c r="R24">
-        <v>12246.57160450304</v>
+        <v>114506.2462050167</v>
       </c>
       <c r="S24">
-        <v>0.03997525153073252</v>
+        <v>0.03531382662055026</v>
       </c>
       <c r="T24">
-        <v>0.03997525153073252</v>
+        <v>0.03531382662055026</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>214.807972016026</v>
+        <v>218.6560773333333</v>
       </c>
       <c r="H25">
-        <v>214.807972016026</v>
+        <v>655.9682320000001</v>
       </c>
       <c r="I25">
-        <v>0.3695510406064055</v>
+        <v>0.3420666496915519</v>
       </c>
       <c r="J25">
-        <v>0.3695510406064055</v>
+        <v>0.3420666496915519</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N25">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q25">
-        <v>23145.15135244866</v>
+        <v>25328.22168624229</v>
       </c>
       <c r="R25">
-        <v>23145.15135244866</v>
+        <v>227953.9951761806</v>
       </c>
       <c r="S25">
-        <v>0.07555038886889802</v>
+        <v>0.07030121176708976</v>
       </c>
       <c r="T25">
-        <v>0.07555038886889802</v>
+        <v>0.07030121176708976</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>28.8118964506037</v>
+        <v>30.15805666666667</v>
       </c>
       <c r="H26">
-        <v>28.8118964506037</v>
+        <v>90.47417000000002</v>
       </c>
       <c r="I26">
-        <v>0.04956737040639364</v>
+        <v>0.04717941312670751</v>
       </c>
       <c r="J26">
-        <v>0.04956737040639364</v>
+        <v>0.04717941312670752</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N26">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q26">
-        <v>2104.100625552564</v>
+        <v>2858.979278449557</v>
       </c>
       <c r="R26">
-        <v>2104.100625552564</v>
+        <v>25730.81350604602</v>
       </c>
       <c r="S26">
-        <v>0.006868203973225257</v>
+        <v>0.007935405421738581</v>
       </c>
       <c r="T26">
-        <v>0.006868203973225257</v>
+        <v>0.007935405421738583</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>28.8118964506037</v>
+        <v>30.15805666666667</v>
       </c>
       <c r="H27">
-        <v>28.8118964506037</v>
+        <v>90.47417000000002</v>
       </c>
       <c r="I27">
-        <v>0.04956737040639364</v>
+        <v>0.04717941312670751</v>
       </c>
       <c r="J27">
-        <v>0.04956737040639364</v>
+        <v>0.04717941312670752</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N27">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q27">
-        <v>4174.546079767446</v>
+        <v>4392.260468311884</v>
       </c>
       <c r="R27">
-        <v>4174.546079767446</v>
+        <v>39530.34421480697</v>
       </c>
       <c r="S27">
-        <v>0.01362655075678292</v>
+        <v>0.01219119277871504</v>
       </c>
       <c r="T27">
-        <v>0.01362655075678292</v>
+        <v>0.01219119277871504</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>28.8118964506037</v>
+        <v>30.15805666666667</v>
       </c>
       <c r="H28">
-        <v>28.8118964506037</v>
+        <v>90.47417000000002</v>
       </c>
       <c r="I28">
-        <v>0.04956737040639364</v>
+        <v>0.04717941312670751</v>
       </c>
       <c r="J28">
-        <v>0.04956737040639364</v>
+        <v>0.04717941312670752</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N28">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q28">
-        <v>1959.778251617164</v>
+        <v>2194.781847337005</v>
       </c>
       <c r="R28">
-        <v>1959.778251617164</v>
+        <v>19753.03662603304</v>
       </c>
       <c r="S28">
-        <v>0.006397106968618787</v>
+        <v>0.006091853796273947</v>
       </c>
       <c r="T28">
-        <v>0.006397106968618787</v>
+        <v>0.006091853796273948</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>28.8118964506037</v>
+        <v>30.15805666666667</v>
       </c>
       <c r="H29">
-        <v>28.8118964506037</v>
+        <v>90.47417000000002</v>
       </c>
       <c r="I29">
-        <v>0.04956737040639364</v>
+        <v>0.04717941312670751</v>
       </c>
       <c r="J29">
-        <v>0.04956737040639364</v>
+        <v>0.04717941312670752</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N29">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q29">
-        <v>2199.686155629219</v>
+        <v>2303.656432872523</v>
       </c>
       <c r="R29">
-        <v>2199.686155629219</v>
+        <v>20732.90789585271</v>
       </c>
       <c r="S29">
-        <v>0.007180214201957983</v>
+        <v>0.00639404695411195</v>
       </c>
       <c r="T29">
-        <v>0.007180214201957983</v>
+        <v>0.006394046954111953</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>28.8118964506037</v>
+        <v>30.15805666666667</v>
       </c>
       <c r="H30">
-        <v>28.8118964506037</v>
+        <v>90.47417000000002</v>
       </c>
       <c r="I30">
-        <v>0.04956737040639364</v>
+        <v>0.04717941312670751</v>
       </c>
       <c r="J30">
-        <v>0.04956737040639364</v>
+        <v>0.04717941312670752</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N30">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O30">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P30">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q30">
-        <v>1642.615726186925</v>
+        <v>1754.803405244873</v>
       </c>
       <c r="R30">
-        <v>1642.615726186925</v>
+        <v>15793.23064720386</v>
       </c>
       <c r="S30">
-        <v>0.005361825247362671</v>
+        <v>0.004870646164185265</v>
       </c>
       <c r="T30">
-        <v>0.005361825247362671</v>
+        <v>0.004870646164185266</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>28.8118964506037</v>
+        <v>30.15805666666667</v>
       </c>
       <c r="H31">
-        <v>28.8118964506037</v>
+        <v>90.47417000000002</v>
       </c>
       <c r="I31">
-        <v>0.04956737040639364</v>
+        <v>0.04717941312670751</v>
       </c>
       <c r="J31">
-        <v>0.04956737040639364</v>
+        <v>0.04717941312670752</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N31">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q31">
-        <v>3104.427167398374</v>
+        <v>3493.385384917195</v>
       </c>
       <c r="R31">
-        <v>3104.427167398374</v>
+        <v>31440.46846425475</v>
       </c>
       <c r="S31">
-        <v>0.01013346925844602</v>
+        <v>0.009696268011682734</v>
       </c>
       <c r="T31">
-        <v>0.01013346925844602</v>
+        <v>0.009696268011682736</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>9.59118579318671</v>
+        <v>11.283952</v>
       </c>
       <c r="H32">
-        <v>9.59118579318671</v>
+        <v>33.851856</v>
       </c>
       <c r="I32">
-        <v>0.01650047089619693</v>
+        <v>0.01765267036248923</v>
       </c>
       <c r="J32">
-        <v>0.01650047089619693</v>
+        <v>0.01765267036248923</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N32">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q32">
-        <v>700.4335886682728</v>
+        <v>1069.716968291152</v>
       </c>
       <c r="R32">
-        <v>700.4335886682728</v>
+        <v>9627.452714620369</v>
       </c>
       <c r="S32">
-        <v>0.002286354891134781</v>
+        <v>0.002969114849446131</v>
       </c>
       <c r="T32">
-        <v>0.002286354891134781</v>
+        <v>0.002969114849446132</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>9.59118579318671</v>
+        <v>11.283952</v>
       </c>
       <c r="H33">
-        <v>9.59118579318671</v>
+        <v>33.851856</v>
       </c>
       <c r="I33">
-        <v>0.01650047089619693</v>
+        <v>0.01765267036248923</v>
       </c>
       <c r="J33">
-        <v>0.01650047089619693</v>
+        <v>0.01765267036248923</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N33">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q33">
-        <v>1389.663714844771</v>
+        <v>1643.410145545259</v>
       </c>
       <c r="R33">
-        <v>1389.663714844771</v>
+        <v>14790.69130990733</v>
       </c>
       <c r="S33">
-        <v>0.004536139446865721</v>
+        <v>0.004561462154483442</v>
       </c>
       <c r="T33">
-        <v>0.004536139446865721</v>
+        <v>0.004561462154483444</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>9.59118579318671</v>
+        <v>11.283952</v>
       </c>
       <c r="H34">
-        <v>9.59118579318671</v>
+        <v>33.851856</v>
       </c>
       <c r="I34">
-        <v>0.01650047089619693</v>
+        <v>0.01765267036248923</v>
       </c>
       <c r="J34">
-        <v>0.01650047089619693</v>
+        <v>0.01765267036248923</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N34">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q34">
-        <v>652.390145748736</v>
+        <v>821.2005597560747</v>
       </c>
       <c r="R34">
-        <v>652.390145748736</v>
+        <v>7390.805037804672</v>
       </c>
       <c r="S34">
-        <v>0.002129531514182108</v>
+        <v>0.002279330746936048</v>
       </c>
       <c r="T34">
-        <v>0.002129531514182108</v>
+        <v>0.002279330746936048</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>9.59118579318671</v>
+        <v>11.283952</v>
       </c>
       <c r="H35">
-        <v>9.59118579318671</v>
+        <v>33.851856</v>
       </c>
       <c r="I35">
-        <v>0.01650047089619693</v>
+        <v>0.01765267036248923</v>
       </c>
       <c r="J35">
-        <v>0.01650047089619693</v>
+        <v>0.01765267036248923</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N35">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q35">
-        <v>732.253034489106</v>
+        <v>861.9371234803733</v>
       </c>
       <c r="R35">
-        <v>732.253034489106</v>
+        <v>7757.43411132336</v>
       </c>
       <c r="S35">
-        <v>0.002390219906694614</v>
+        <v>0.002392399474323294</v>
       </c>
       <c r="T35">
-        <v>0.002390219906694614</v>
+        <v>0.002392399474323295</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>9.59118579318671</v>
+        <v>11.283952</v>
       </c>
       <c r="H36">
-        <v>9.59118579318671</v>
+        <v>33.851856</v>
       </c>
       <c r="I36">
-        <v>0.01650047089619693</v>
+        <v>0.01765267036248923</v>
       </c>
       <c r="J36">
-        <v>0.01650047089619693</v>
+        <v>0.01765267036248923</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N36">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O36">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P36">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q36">
-        <v>546.8099832886563</v>
+        <v>656.5780286534718</v>
       </c>
       <c r="R36">
-        <v>546.8099832886563</v>
+        <v>5909.202257881248</v>
       </c>
       <c r="S36">
-        <v>0.001784896812544845</v>
+        <v>0.001822403151937751</v>
       </c>
       <c r="T36">
-        <v>0.001784896812544845</v>
+        <v>0.001822403151937752</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>9.59118579318671</v>
+        <v>11.283952</v>
       </c>
       <c r="H37">
-        <v>9.59118579318671</v>
+        <v>33.851856</v>
       </c>
       <c r="I37">
-        <v>0.01650047089619693</v>
+        <v>0.01765267036248923</v>
       </c>
       <c r="J37">
-        <v>0.01650047089619693</v>
+        <v>0.01765267036248923</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N37">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q37">
-        <v>1033.432068415971</v>
+        <v>1307.086641443866</v>
       </c>
       <c r="R37">
-        <v>1033.432068415971</v>
+        <v>11763.7797729948</v>
       </c>
       <c r="S37">
-        <v>0.00337332832477486</v>
+        <v>0.003627959985362565</v>
       </c>
       <c r="T37">
-        <v>0.00337332832477486</v>
+        <v>0.003627959985362565</v>
       </c>
     </row>
   </sheetData>
